--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -49,79 +49,79 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
+    <t>good</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>share</t>
@@ -485,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,10 +493,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L3">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4021164021164021</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3372093023255814</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C5">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,69 +672,45 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="L5">
+        <v>53</v>
+      </c>
+      <c r="M5">
+        <v>53</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.8913043478260869</v>
-      </c>
-      <c r="L5">
-        <v>41</v>
-      </c>
-      <c r="M5">
-        <v>41</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.2080536912751678</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>31</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>118</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,21 +722,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8433420365535248</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L7">
-        <v>323</v>
+        <v>87</v>
       </c>
       <c r="M7">
-        <v>323</v>
+        <v>87</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,21 +748,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,21 +774,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.79375</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,21 +800,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,21 +826,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,21 +852,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,12 +878,12 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
         <v>0.7777777777777778</v>
@@ -933,16 +909,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,21 +930,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,21 +956,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7734375</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,21 +982,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,21 +1008,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6744186046511628</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,21 +1034,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,21 +1060,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,21 +1086,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6235294117647059</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L21">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="M21">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,21 +1112,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5846153846153846</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,21 +1138,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5648535564853556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L23">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>104</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5531914893617021</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5525423728813559</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L25">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,21 +1216,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>132</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5142857142857142</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,33 +1242,59 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>0.4714285714285714</v>
+      </c>
+      <c r="L27">
+        <v>33</v>
+      </c>
+      <c r="M27">
+        <v>33</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>37</v>
       </c>
-      <c r="K27">
-        <v>0.3370786516853932</v>
-      </c>
-      <c r="L27">
-        <v>30</v>
-      </c>
-      <c r="M27">
-        <v>30</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>59</v>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>0.3820224719101123</v>
+      </c>
+      <c r="L28">
+        <v>34</v>
+      </c>
+      <c r="M28">
+        <v>34</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
